--- a/Scahema shop/schema shop.pptx.xlsx
+++ b/Scahema shop/schema shop.pptx.xlsx
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,71 +331,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 ID</t>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_no</t>
+  </si>
+  <si>
+    <t>board_title</t>
+  </si>
+  <si>
+    <t>board_contents</t>
+  </si>
+  <si>
+    <t>board_date</t>
+  </si>
+  <si>
+    <t>board_file</t>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_no</t>
+  </si>
+  <si>
+    <t>delivery_item_name</t>
+  </si>
+  <si>
+    <t>delivery_name</t>
+  </si>
+  <si>
+    <t>delivery_address</t>
+  </si>
+  <si>
+    <t>delivery_phone</t>
+  </si>
+  <si>
+    <t>delivery_email</t>
+  </si>
+  <si>
+    <t>delivery_memo</t>
+  </si>
+  <si>
+    <t>delivery_member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_seller_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송전 - 배송이 되어야할 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,74 +630,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">작성일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
+    <t>후기번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_member_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(45)</t>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,303 +674,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외래키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_no</t>
-  </si>
-  <si>
-    <t>board_title</t>
-  </si>
-  <si>
-    <t>board_contents</t>
-  </si>
-  <si>
-    <t>board_date</t>
-  </si>
-  <si>
-    <t>board_file</t>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_no</t>
-  </si>
-  <si>
-    <t>delivery_item_name</t>
-  </si>
-  <si>
-    <t>delivery_name</t>
-  </si>
-  <si>
-    <t>delivery_address</t>
-  </si>
-  <si>
-    <t>delivery_phone</t>
-  </si>
-  <si>
-    <t>delivery_email</t>
-  </si>
-  <si>
-    <t>delivery_memo</t>
-  </si>
-  <si>
-    <t>delivery_member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>longtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>order_no</t>
+  </si>
+  <si>
+    <t>order_item_name</t>
+  </si>
+  <si>
+    <t>order_member_id</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_count</t>
+  </si>
+  <si>
+    <t>order_state</t>
+  </si>
+  <si>
+    <t>order_delivery_no</t>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>longtext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_seller_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_delivery_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송전 - 배송이 되어야할 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_member_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>nonmember_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonmember_delivery_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonmember_order_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>주문날짜</t>
+  </si>
+  <si>
+    <t>주문수량</t>
+  </si>
+  <si>
+    <t>주문현황</t>
   </si>
   <si>
     <t>nonmember</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nonmember_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +946,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1285,6 +1274,9 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1305,13 +1297,13 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1331,21 +1323,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>116</v>
+      <c r="I3" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1354,7 +1345,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -1369,15 +1360,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1386,30 +1380,33 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1418,29 +1415,33 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1455,9 +1456,6 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1470,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1489,17 +1487,17 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1514,17 +1512,17 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1539,17 +1537,17 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="11" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1576,10 +1574,10 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
@@ -1596,22 +1594,22 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1623,19 +1621,19 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2"/>
       <c r="K15" s="1"/>
@@ -1648,19 +1646,19 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2"/>
       <c r="J16" s="1"/>
@@ -1676,13 +1674,13 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1695,13 +1693,13 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1717,13 +1715,13 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1"/>
       <c r="K19" s="1"/>
@@ -1748,10 +1746,10 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1770,19 +1768,19 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="H22" s="13"/>
       <c r="M22" s="1"/>
@@ -1792,19 +1790,19 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1818,19 +1816,19 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1845,10 +1843,10 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1862,10 +1860,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1"/>
       <c r="J26" s="1"/>
@@ -1880,10 +1878,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="6" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -1916,10 +1914,10 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1937,22 +1935,22 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1966,22 +1964,22 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1995,22 +1993,22 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2024,7 +2022,7 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="C33" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2039,7 +2037,7 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="C34" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2054,7 +2052,7 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2079,10 +2077,10 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2099,13 +2097,13 @@
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>5</v>
@@ -2123,16 +2121,16 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2147,16 +2145,16 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2179,16 +2177,6 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2199,21 +2187,13 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="1"/>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2225,19 +2205,20 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2250,20 +2231,21 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="1"/>
+      <c r="B45" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2274,6 +2256,19 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2286,6 +2281,15 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2298,11 +2302,13 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
@@ -2319,21 +2325,15 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2348,21 +2348,6 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2377,11 +2362,6 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2397,15 +2377,6 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2416,15 +2387,6 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2435,11 +2397,6 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
